--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_178__Reeval_Halton_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_178__Reeval_Halton_Modell_1.2.xlsx
@@ -5990,25 +5990,25 @@
                   <c:v>95.52736663818359</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.342323780059814</c:v>
+                  <c:v>-1.342319369316101</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>85.39913177490234</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.913032054901123</c:v>
+                  <c:v>-4.913040637969971</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>91.16812133789062</c:v>
+                  <c:v>91.16814422607422</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72.84487152099609</c:v>
+                  <c:v>72.84487915039062</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>93.00205230712891</c:v>
+                  <c:v>93.00206756591797</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.744015693664551</c:v>
+                  <c:v>8.744029998779297</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>83.54017639160156</c:v>
@@ -6017,19 +6017,19 @@
                   <c:v>92.36598968505859</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>93.04195404052734</c:v>
+                  <c:v>93.04194641113281</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>6.851224899291992</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>90.36809539794922</c:v>
+                  <c:v>90.36811065673828</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>93.45883941650391</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.532233238220215</c:v>
+                  <c:v>2.532227277755737</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>9.305052757263184</c:v>
@@ -6038,16 +6038,16 @@
                   <c:v>86.88358306884766</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1.928169846534729</c:v>
+                  <c:v>-1.928175687789917</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>56.97478866577148</c:v>
+                  <c:v>56.97478485107422</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>69.83142852783203</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>51.72912216186523</c:v>
+                  <c:v>51.72913360595703</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>8.998388290405273</c:v>
@@ -6056,43 +6056,43 @@
                   <c:v>92.86951446533203</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11.45119380950928</c:v>
+                  <c:v>11.4511890411377</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>37.33028793334961</c:v>
+                  <c:v>37.33028411865234</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>48.4625244140625</c:v>
+                  <c:v>48.4625358581543</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.609049320220947</c:v>
+                  <c:v>6.60905933380127</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.200691699981689</c:v>
+                  <c:v>6.200685977935791</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>91.73619079589844</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>86.18784332275391</c:v>
+                  <c:v>86.18783569335938</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>55.13442611694336</c:v>
+                  <c:v>55.1343994140625</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>72.7193603515625</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.615729808807373</c:v>
+                  <c:v>5.615744590759277</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>27.75860404968262</c:v>
+                  <c:v>27.75859451293945</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34.59162139892578</c:v>
+                  <c:v>34.59162521362305</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>10.33330249786377</c:v>
+                  <c:v>10.33330821990967</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>91.60503387451172</c:v>
@@ -6104,52 +6104,52 @@
                   <c:v>93.69976043701172</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>34.80138778686523</c:v>
+                  <c:v>34.80139541625977</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>80.37736511230469</c:v>
+                  <c:v>80.37738037109375</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>86.80961608886719</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>90.63964080810547</c:v>
+                  <c:v>90.63963317871094</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>52.37968826293945</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>97.69147491455078</c:v>
+                  <c:v>97.69145202636719</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>89.78401184082031</c:v>
+                  <c:v>89.78398895263672</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>88.66005706787109</c:v>
+                  <c:v>88.66006469726562</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-2.971855640411377</c:v>
+                  <c:v>-2.971865892410278</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>87.28030395507812</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>96.19734191894531</c:v>
+                  <c:v>96.19736480712891</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>20.69464683532715</c:v>
+                  <c:v>20.69465827941895</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-2.03251576423645</c:v>
+                  <c:v>-2.032518625259399</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.530643463134766</c:v>
+                  <c:v>2.530638933181763</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-1.734317779541016</c:v>
+                  <c:v>-1.734325170516968</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>93.76061248779297</c:v>
+                  <c:v>93.76059722900391</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>76.50675964355469</c:v>
@@ -6158,130 +6158,130 @@
                   <c:v>65.80971527099609</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>10.90895175933838</c:v>
+                  <c:v>10.90896129608154</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>92.83736419677734</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.689169406890869</c:v>
+                  <c:v>1.689172387123108</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>83.20326232910156</c:v>
+                  <c:v>83.20327758789062</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>8.51087760925293</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>90.47130584716797</c:v>
+                  <c:v>90.4713134765625</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>91.45146942138672</c:v>
+                  <c:v>91.45148468017578</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>113.0275192260742</c:v>
+                  <c:v>113.0275421142578</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>7.548402309417725</c:v>
+                  <c:v>7.548418521881104</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>91.14571380615234</c:v>
+                  <c:v>91.14572143554688</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>87.67882537841797</c:v>
+                  <c:v>87.6788330078125</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>6.216935157775879</c:v>
+                  <c:v>6.216949462890625</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>38.29062652587891</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>91.07314300537109</c:v>
+                  <c:v>91.07312774658203</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>92.31755065917969</c:v>
+                  <c:v>92.31752777099609</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>94.77927398681641</c:v>
+                  <c:v>94.77926635742188</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>96.69227600097656</c:v>
+                  <c:v>96.69230651855469</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.383052825927734</c:v>
+                  <c:v>3.383049726486206</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>70.97252655029297</c:v>
+                  <c:v>70.9725341796875</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>87.55501556396484</c:v>
+                  <c:v>87.55500030517578</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>91.53285217285156</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>49.33704376220703</c:v>
+                  <c:v>49.33703994750977</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.114967346191406</c:v>
+                  <c:v>1.114936470985413</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>93.62017822265625</c:v>
+                  <c:v>93.62018585205078</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>96.48300933837891</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>6.49699592590332</c:v>
+                  <c:v>6.497019290924072</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>79.33700561523438</c:v>
+                  <c:v>79.33699798583984</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>62.14447021484375</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>91.14203643798828</c:v>
+                  <c:v>91.14202880859375</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>5.080652713775635</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>22.94136238098145</c:v>
+                  <c:v>22.94136047363281</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>92.35200500488281</c:v>
+                  <c:v>92.35198974609375</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>77.31774139404297</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3.366910696029663</c:v>
+                  <c:v>3.366931200027466</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>86.90737152099609</c:v>
+                  <c:v>86.90735626220703</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>93.05213928222656</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>8.146916389465332</c:v>
+                  <c:v>8.146927833557129</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>89.2357177734375</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>9.710516929626465</c:v>
+                  <c:v>9.71049976348877</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>91.88880920410156</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>31.45852661132812</c:v>
+                  <c:v>31.45850563049316</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>59.56319046020508</c:v>
+                  <c:v>59.56321334838867</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>93.15563201904297</c:v>
@@ -7011,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>-1.342323780059814</v>
+        <v>-1.342319369316101</v>
       </c>
       <c r="G3">
         <v>121</v>
@@ -7075,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-4.913032054901123</v>
+        <v>-4.913040637969971</v>
       </c>
       <c r="G5">
         <v>121</v>
@@ -7107,7 +7107,7 @@
         <v>96.7841</v>
       </c>
       <c r="F6">
-        <v>91.16812133789062</v>
+        <v>91.16814422607422</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7139,7 +7139,7 @@
         <v>96.0889</v>
       </c>
       <c r="F7">
-        <v>72.84487152099609</v>
+        <v>72.84487915039062</v>
       </c>
       <c r="G7">
         <v>121</v>
@@ -7171,7 +7171,7 @@
         <v>97.5325</v>
       </c>
       <c r="F8">
-        <v>93.00205230712891</v>
+        <v>93.00206756591797</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.744015693664551</v>
+        <v>8.744029998779297</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7251,7 +7251,7 @@
         <v>93.5943</v>
       </c>
       <c r="F12">
-        <v>93.04195404052734</v>
+        <v>93.04194641113281</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7291,7 +7291,7 @@
         <v>97.7777</v>
       </c>
       <c r="F14">
-        <v>90.36809539794922</v>
+        <v>90.36811065673828</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.532233238220215</v>
+        <v>2.532227277755737</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>-1.928169846534729</v>
+        <v>-1.928175687789917</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>70.7677</v>
       </c>
       <c r="F20">
-        <v>56.97478866577148</v>
+        <v>56.97478485107422</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>67.3374</v>
       </c>
       <c r="F22">
-        <v>51.72912216186523</v>
+        <v>51.72913360595703</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>11.45119380950928</v>
+        <v>11.4511890411377</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>37.33028793334961</v>
+        <v>37.33028411865234</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>48.4625244140625</v>
+        <v>48.4625358581543</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>55.7988</v>
       </c>
       <c r="F28">
-        <v>6.609049320220947</v>
+        <v>6.60905933380127</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>6.200691699981689</v>
+        <v>6.200685977935791</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>94.28400000000001</v>
       </c>
       <c r="F31">
-        <v>86.18784332275391</v>
+        <v>86.18783569335938</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>86.7184</v>
       </c>
       <c r="F32">
-        <v>55.13442611694336</v>
+        <v>55.1343994140625</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>5.615729808807373</v>
+        <v>5.615744590759277</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>27.75860404968262</v>
+        <v>27.75859451293945</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>94.44029999999999</v>
       </c>
       <c r="F36">
-        <v>34.59162139892578</v>
+        <v>34.59162521362305</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>10.33330249786377</v>
+        <v>10.33330821990967</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>36.7921</v>
       </c>
       <c r="F41">
-        <v>34.80138778686523</v>
+        <v>34.80139541625977</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>41.033</v>
       </c>
       <c r="F42">
-        <v>80.37736511230469</v>
+        <v>80.37738037109375</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>92.40940000000001</v>
       </c>
       <c r="F44">
-        <v>90.63964080810547</v>
+        <v>90.63963317871094</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>90.426</v>
       </c>
       <c r="F46">
-        <v>97.69147491455078</v>
+        <v>97.69145202636719</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>92.2792</v>
       </c>
       <c r="F47">
-        <v>89.78401184082031</v>
+        <v>89.78398895263672</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>95.2355</v>
       </c>
       <c r="F48">
-        <v>88.66005706787109</v>
+        <v>88.66006469726562</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>-2.971855640411377</v>
+        <v>-2.971865892410278</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>97.8107</v>
       </c>
       <c r="F51">
-        <v>96.19734191894531</v>
+        <v>96.19736480712891</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>52.4695</v>
       </c>
       <c r="F52">
-        <v>20.69464683532715</v>
+        <v>20.69465827941895</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>-2.03251576423645</v>
+        <v>-2.032518625259399</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>55.2559</v>
       </c>
       <c r="F54">
-        <v>2.530643463134766</v>
+        <v>2.530638933181763</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>-1.734317779541016</v>
+        <v>-1.734325170516968</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>92.9953</v>
       </c>
       <c r="F56">
-        <v>93.76061248779297</v>
+        <v>93.76059722900391</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>10.90895175933838</v>
+        <v>10.90896129608154</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.689169406890869</v>
+        <v>1.689172387123108</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>95.947</v>
       </c>
       <c r="F62">
-        <v>83.20326232910156</v>
+        <v>83.20327758789062</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>72.6528</v>
       </c>
       <c r="F64">
-        <v>90.47130584716797</v>
+        <v>90.4713134765625</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>91.5611</v>
       </c>
       <c r="F65">
-        <v>91.45146942138672</v>
+        <v>91.45148468017578</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>39.3514</v>
       </c>
       <c r="F66">
-        <v>113.0275192260742</v>
+        <v>113.0275421142578</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>7.548402309417725</v>
+        <v>7.548418521881104</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>94.0749</v>
       </c>
       <c r="F68">
-        <v>91.14571380615234</v>
+        <v>91.14572143554688</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>85.733</v>
       </c>
       <c r="F69">
-        <v>87.67882537841797</v>
+        <v>87.6788330078125</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>6.216935157775879</v>
+        <v>6.216949462890625</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>94.26949999999999</v>
       </c>
       <c r="F72">
-        <v>91.07314300537109</v>
+        <v>91.07312774658203</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>95.1549</v>
       </c>
       <c r="F73">
-        <v>92.31755065917969</v>
+        <v>92.31752777099609</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>95.4374</v>
       </c>
       <c r="F74">
-        <v>94.77927398681641</v>
+        <v>94.77926635742188</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>98.0594</v>
       </c>
       <c r="F75">
-        <v>96.69227600097656</v>
+        <v>96.69230651855469</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>3.383052825927734</v>
+        <v>3.383049726486206</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>84.64230000000001</v>
       </c>
       <c r="F77">
-        <v>70.97252655029297</v>
+        <v>70.9725341796875</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>64.6464</v>
       </c>
       <c r="F78">
-        <v>87.55501556396484</v>
+        <v>87.55500030517578</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>49.6912</v>
       </c>
       <c r="F80">
-        <v>49.33704376220703</v>
+        <v>49.33703994750977</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.114967346191406</v>
+        <v>1.114936470985413</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>97.32899999999999</v>
       </c>
       <c r="F82">
-        <v>93.62017822265625</v>
+        <v>93.62018585205078</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>6.49699592590332</v>
+        <v>6.497019290924072</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>60.5714</v>
       </c>
       <c r="F85">
-        <v>79.33700561523438</v>
+        <v>79.33699798583984</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>94.4075</v>
       </c>
       <c r="F87">
-        <v>91.14203643798828</v>
+        <v>91.14202880859375</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>22.94136238098145</v>
+        <v>22.94136047363281</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>93.3051</v>
       </c>
       <c r="F90">
-        <v>92.35200500488281</v>
+        <v>92.35198974609375</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>3.366910696029663</v>
+        <v>3.366931200027466</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>54.1262</v>
       </c>
       <c r="F93">
-        <v>86.90737152099609</v>
+        <v>86.90735626220703</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8911,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>8.146916389465332</v>
+        <v>8.146927833557129</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8951,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>9.710516929626465</v>
+        <v>9.71049976348877</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>13.7923</v>
       </c>
       <c r="F99">
-        <v>31.45852661132812</v>
+        <v>31.45850563049316</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -9011,7 +9011,7 @@
         <v>50.6355</v>
       </c>
       <c r="F100">
-        <v>59.56319046020508</v>
+        <v>59.56321334838867</v>
       </c>
     </row>
     <row r="101" spans="1:6">
